--- a/static/uploads/discente.xlsx
+++ b/static/uploads/discente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thatt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30022502-0AE5-49FF-99B8-A2A145195003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75B390A-2049-4417-AF2A-FCA2EA39AADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A8C16E5-BE47-4D21-85A4-45461C1B8447}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="106">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -36,9 +36,6 @@
     <t>2. Qual o seu ano de ingresso?</t>
   </si>
   <si>
-    <t>3. A qual programa está vinculado?</t>
-  </si>
-  <si>
     <t>Como você avalia a qualidade das aulas e do material utilizado?  [Qualidade das aulas]</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
   </si>
   <si>
     <t>Acho q muitas coisas ficam a cargo do orientador, e os resultados das pesquisas acabam variando de acordo com a forma que o orientador lida com o aluno. Bem como, o bem estar do aluno.</t>
-  </si>
-  <si>
-    <t>Ciência e Tecnologia da Computação</t>
   </si>
 </sst>
 </file>
@@ -711,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B35D96-E58E-4F73-956E-B008E2502F95}">
-  <dimension ref="A1:AX27"/>
+  <dimension ref="A1:AW27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,10 +716,9 @@
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,22 +866,19 @@
       <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44285.420267847221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1">
         <v>2020</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>107</v>
+      <c r="D2" s="1">
+        <v>5</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -897,7 +887,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
@@ -906,10 +896,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" s="1">
         <v>4</v>
@@ -918,13 +908,13 @@
         <v>4</v>
       </c>
       <c r="N2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2" s="1">
         <v>5</v>
       </c>
       <c r="P2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="1">
         <v>4</v>
@@ -951,19 +941,19 @@
         <v>4</v>
       </c>
       <c r="Y2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>4</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>52</v>
@@ -975,93 +965,90 @@
         <v>54</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AJ2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AM2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AP2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>2</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44285.43812914352</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>2020</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
+      <c r="D3" s="1">
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
         <v>4</v>
       </c>
       <c r="I3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
       </c>
       <c r="L3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" s="1">
         <v>4</v>
@@ -1073,108 +1060,105 @@
         <v>4</v>
       </c>
       <c r="P3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" s="1">
         <v>2</v>
       </c>
       <c r="U3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3" s="1">
         <v>4</v>
       </c>
       <c r="Y3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AE3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AN3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AO3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ3" s="1">
+      <c r="AP3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="1">
         <v>2</v>
       </c>
       <c r="AS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44285.441481226851</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1">
         <v>2020</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>107</v>
+      <c r="D4" s="1">
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -1192,10 +1176,10 @@
         <v>5</v>
       </c>
       <c r="J4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4" s="1">
         <v>5</v>
@@ -1225,105 +1209,102 @@
         <v>5</v>
       </c>
       <c r="U4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V4" s="1">
         <v>3</v>
       </c>
       <c r="W4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X4" s="1">
         <v>5</v>
       </c>
       <c r="Y4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ4" s="1">
+        <v>55</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="1">
         <v>5</v>
       </c>
       <c r="AS4" s="1">
         <v>5</v>
       </c>
-      <c r="AT4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV4" s="1">
+      <c r="AT4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU4" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44285.443453854168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <v>2020</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>107</v>
+      <c r="D5" s="1">
+        <v>5</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
         <v>4</v>
@@ -1332,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
@@ -1353,111 +1334,108 @@
         <v>5</v>
       </c>
       <c r="R5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" s="1">
         <v>4</v>
       </c>
       <c r="T5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X5" s="1">
         <v>5</v>
       </c>
       <c r="Y5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AD5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>4</v>
+      <c r="AP5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>5</v>
       </c>
       <c r="AS5" s="1">
         <v>5</v>
       </c>
-      <c r="AT5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV5" s="1">
+      <c r="AT5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44285.466282222224</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1">
         <v>2020</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
+      <c r="D6" s="1">
+        <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
@@ -1466,34 +1444,34 @@
         <v>4</v>
       </c>
       <c r="J6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="1">
         <v>4</v>
       </c>
       <c r="M6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R6" s="1">
         <v>3</v>
       </c>
       <c r="S6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T6" s="1">
         <v>4</v>
@@ -1502,10 +1480,10 @@
         <v>4</v>
       </c>
       <c r="V6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X6" s="1">
         <v>5</v>
@@ -1516,88 +1494,85 @@
       <c r="Z6" s="1">
         <v>5</v>
       </c>
-      <c r="AA6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>5</v>
+      <c r="AA6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="AD6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>5</v>
+      <c r="AP6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>3</v>
       </c>
       <c r="AS6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44285.466389490743</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1">
         <v>2020</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>107</v>
+      <c r="D7" s="1">
+        <v>4</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1">
         <v>4</v>
@@ -1606,34 +1581,34 @@
         <v>4</v>
       </c>
       <c r="J7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1">
         <v>4</v>
       </c>
       <c r="M7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R7" s="1">
         <v>3</v>
       </c>
       <c r="S7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7" s="1">
         <v>4</v>
@@ -1642,10 +1617,10 @@
         <v>4</v>
       </c>
       <c r="V7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X7" s="1">
         <v>5</v>
@@ -1656,79 +1631,76 @@
       <c r="Z7" s="1">
         <v>5</v>
       </c>
-      <c r="AA7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>5</v>
+      <c r="AA7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="AD7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>5</v>
+      <c r="AP7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>3</v>
       </c>
       <c r="AS7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44285.67451409722</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>2018</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>107</v>
+      <c r="D8" s="1">
+        <v>5</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -1767,105 +1739,102 @@
         <v>5</v>
       </c>
       <c r="Q8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S8" s="1">
         <v>2</v>
       </c>
       <c r="T8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
+        <v>4</v>
+      </c>
+      <c r="V8" s="1">
+        <v>3</v>
+      </c>
+      <c r="W8" s="1">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="1">
         <v>1</v>
       </c>
-      <c r="V8" s="1">
-        <v>4</v>
-      </c>
-      <c r="W8" s="1">
-        <v>3</v>
-      </c>
-      <c r="X8" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>4</v>
-      </c>
       <c r="Z8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN8" s="1">
         <v>1</v>
       </c>
-      <c r="AA8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ8" s="1">
+      <c r="AP8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR8" s="1">
         <v>5</v>
       </c>
       <c r="AS8" s="1">
         <v>5</v>
       </c>
-      <c r="AT8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV8" s="1">
+      <c r="AT8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44286.382917662035</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1">
         <v>2020</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>107</v>
+      <c r="D9" s="1">
+        <v>4</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -1874,16 +1843,16 @@
         <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
       </c>
       <c r="K9" s="1">
         <v>5</v>
@@ -1904,129 +1873,126 @@
         <v>5</v>
       </c>
       <c r="Q9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" s="1">
         <v>2</v>
       </c>
       <c r="U9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V9" s="1">
         <v>4</v>
       </c>
       <c r="W9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
         <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AD9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AG9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AG9" s="1" t="s">
+      <c r="AM9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AH9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN9" s="1" t="s">
+      <c r="AN9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AO9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>4</v>
+      <c r="AP9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>3</v>
       </c>
       <c r="AS9" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44286.604198217596</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1">
         <v>2019</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>107</v>
+      <c r="D10" s="1">
+        <v>4</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
       </c>
       <c r="J10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" s="1">
         <v>4</v>
@@ -2037,17 +2003,17 @@
       <c r="M10" s="1">
         <v>4</v>
       </c>
-      <c r="N10" s="1">
-        <v>4</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>73</v>
+      <c r="N10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4</v>
       </c>
       <c r="P10" s="1">
         <v>4</v>
       </c>
       <c r="Q10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10" s="1">
         <v>3</v>
@@ -2059,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="U10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10" s="1">
         <v>2</v>
@@ -2068,105 +2034,102 @@
         <v>2</v>
       </c>
       <c r="X10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF10" s="1" t="s">
-        <v>79</v>
+      <c r="AG10" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ10" s="1">
+        <v>75</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR10" s="1">
         <v>4</v>
       </c>
       <c r="AS10" s="1">
         <v>4</v>
       </c>
-      <c r="AT10" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV10" s="1">
+      <c r="AT10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU10" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44286.645372222221</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1">
         <v>2020</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>107</v>
+      <c r="D11" s="1">
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
       </c>
-      <c r="G11" s="1">
-        <v>4</v>
+      <c r="G11" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
       </c>
       <c r="K11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" s="1">
         <v>5</v>
@@ -2175,13 +2138,13 @@
         <v>5</v>
       </c>
       <c r="N11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O11" s="1">
         <v>3</v>
       </c>
       <c r="P11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="1">
         <v>4</v>
@@ -2196,96 +2159,93 @@
         <v>4</v>
       </c>
       <c r="U11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V11" s="1">
         <v>3</v>
       </c>
       <c r="W11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="1">
-        <v>4</v>
-      </c>
       <c r="AD11" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>3</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>5</v>
       </c>
       <c r="AS11" s="1">
         <v>5</v>
       </c>
-      <c r="AT11" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV11" s="1">
+      <c r="AT11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44286.666799189814</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1">
         <v>2019</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -2300,123 +2260,120 @@
         <v>3</v>
       </c>
       <c r="L12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
       </c>
       <c r="P12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4</v>
+      </c>
+      <c r="S12" s="1">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>5</v>
+      </c>
+      <c r="V12" s="1">
+        <v>4</v>
+      </c>
+      <c r="W12" s="1">
+        <v>4</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="1">
         <v>1</v>
       </c>
-      <c r="Q12" s="1">
-        <v>4</v>
-      </c>
-      <c r="R12" s="1">
-        <v>3</v>
-      </c>
-      <c r="S12" s="1">
-        <v>4</v>
-      </c>
-      <c r="T12" s="1">
-        <v>2</v>
-      </c>
-      <c r="U12" s="1">
-        <v>2</v>
-      </c>
-      <c r="V12" s="1">
-        <v>5</v>
-      </c>
-      <c r="W12" s="1">
-        <v>4</v>
-      </c>
-      <c r="X12" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>4</v>
-      </c>
       <c r="Z12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>3</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>5</v>
       </c>
       <c r="AS12" s="1">
-        <v>5</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>3</v>
-      </c>
-      <c r="AU12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU12" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44289.717050115738</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1">
         <v>2019</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>107</v>
+      <c r="D13" s="1">
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
         <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -2428,13 +2385,13 @@
         <v>1</v>
       </c>
       <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="1">
         <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>3</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
@@ -2443,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="P13" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="1">
         <v>1</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>4</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
@@ -2461,123 +2418,120 @@
         <v>1</v>
       </c>
       <c r="V13" s="1">
+        <v>3</v>
+      </c>
+      <c r="W13" s="1">
+        <v>3</v>
+      </c>
+      <c r="X13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS13" s="1">
         <v>1</v>
       </c>
-      <c r="W13" s="1">
-        <v>3</v>
-      </c>
-      <c r="X13" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>5</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV13" s="1">
+      <c r="AT13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44291.397210497686</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1">
         <v>2019</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>107</v>
+      <c r="D14" s="1">
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
-      <c r="F14" s="1">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5</v>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
       </c>
       <c r="K14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
       </c>
       <c r="M14" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P14" s="1">
         <v>4</v>
@@ -2589,114 +2543,111 @@
         <v>4</v>
       </c>
       <c r="S14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T14" s="1">
         <v>2</v>
       </c>
       <c r="U14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V14" s="1">
         <v>3</v>
       </c>
       <c r="W14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN14" s="1">
         <v>1</v>
       </c>
-      <c r="AA14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG14" s="1" t="s">
+      <c r="AO14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV14" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>4</v>
       </c>
       <c r="AW14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AX14" s="1" t="s">
-        <v>85</v>
-      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44291.434863715273</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1">
         <v>2020</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>107</v>
+      <c r="D15" s="1">
+        <v>4</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1">
         <v>4</v>
@@ -2711,13 +2662,13 @@
         <v>4</v>
       </c>
       <c r="L15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1">
         <v>3</v>
       </c>
       <c r="N15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15" s="1">
         <v>4</v>
@@ -2738,120 +2689,117 @@
         <v>4</v>
       </c>
       <c r="U15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" s="1">
         <v>5</v>
       </c>
       <c r="W15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="AD15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AG15" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AO15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>3</v>
+      <c r="AP15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>5</v>
       </c>
       <c r="AS15" s="1">
         <v>5</v>
       </c>
-      <c r="AT15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>5</v>
+      <c r="AT15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44291.588247222222</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1">
         <v>2019</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>107</v>
+      <c r="D16" s="1">
+        <v>5</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
       <c r="F16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>5</v>
       </c>
       <c r="J16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="1">
         <v>3</v>
@@ -2863,275 +2811,269 @@
         <v>3</v>
       </c>
       <c r="N16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" s="1">
         <v>4</v>
       </c>
       <c r="P16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16" s="1">
         <v>4</v>
       </c>
       <c r="S16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X16" s="1">
         <v>5</v>
       </c>
       <c r="Y16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AO16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>3</v>
+      <c r="AP16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>4</v>
       </c>
       <c r="AS16" s="1">
-        <v>4</v>
-      </c>
-      <c r="AT16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU16" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44292.401580509264</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1">
         <v>2019</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>107</v>
+      <c r="D17" s="1">
+        <v>5</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="1">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>73</v>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
       </c>
       <c r="J17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M17" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S17" s="1">
         <v>4</v>
       </c>
       <c r="T17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X17" s="1">
         <v>3</v>
       </c>
       <c r="Y17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="AD17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AE17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AG17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ17" s="1">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>4</v>
       </c>
       <c r="AS17" s="1">
         <v>4</v>
       </c>
-      <c r="AT17" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV17" s="1">
+      <c r="AT17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU17" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44292.440065347226</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1">
         <v>2019</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>107</v>
+      <c r="D18" s="1">
+        <v>5</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="1">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>73</v>
+      <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
       </c>
       <c r="H18" s="1">
         <v>4</v>
       </c>
-      <c r="I18" s="1">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>73</v>
+      <c r="I18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
       </c>
       <c r="K18" s="1">
         <v>5</v>
       </c>
       <c r="L18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" s="1">
         <v>5</v>
@@ -3146,138 +3088,135 @@
         <v>5</v>
       </c>
       <c r="R18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="AD18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AM18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ18" s="1">
+        <v>92</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR18" s="1">
         <v>3</v>
       </c>
       <c r="AS18" s="1">
         <v>3</v>
       </c>
-      <c r="AT18" s="1">
-        <v>3</v>
-      </c>
-      <c r="AU18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV18" s="1">
+      <c r="AT18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU18" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44292.664177719911</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1">
         <v>2020</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>107</v>
+      <c r="D19" s="1">
+        <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="1">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
       </c>
       <c r="K19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" s="1">
-        <v>4</v>
-      </c>
-      <c r="M19" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
       </c>
       <c r="Q19" s="1">
         <v>2</v>
@@ -3289,105 +3228,102 @@
         <v>2</v>
       </c>
       <c r="T19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W19" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR19" s="1">
         <v>1</v>
       </c>
-      <c r="Y19" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>5</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO19" s="1">
-        <v>3</v>
-      </c>
-      <c r="AP19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ19" s="1">
-        <v>3</v>
-      </c>
       <c r="AS19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44292.684953298609</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1">
         <v>2019</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>107</v>
+      <c r="D20" s="1">
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
       </c>
       <c r="F20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" s="1">
         <v>5</v>
@@ -3402,19 +3338,19 @@
         <v>5</v>
       </c>
       <c r="L20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" s="1">
         <v>4</v>
       </c>
       <c r="N20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20" s="1">
         <v>5</v>
       </c>
       <c r="P20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="1">
         <v>4</v>
@@ -3429,10 +3365,10 @@
         <v>4</v>
       </c>
       <c r="U20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W20" s="1">
         <v>4</v>
@@ -3441,93 +3377,90 @@
         <v>4</v>
       </c>
       <c r="Y20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z20" s="1">
         <v>3</v>
       </c>
-      <c r="AA20" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>5</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ20" s="1">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>3</v>
       </c>
       <c r="AS20" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV20" s="1">
-        <v>3</v>
-      </c>
-      <c r="AW20" s="1" t="s">
-        <v>94</v>
+        <v>4</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44292.851201064812</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1">
         <v>2018</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>107</v>
+      <c r="D21" s="1">
+        <v>5</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -3536,10 +3469,10 @@
         <v>3</v>
       </c>
       <c r="I21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K21" s="1">
         <v>5</v>
@@ -3554,13 +3487,13 @@
         <v>5</v>
       </c>
       <c r="O21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21" s="1">
         <v>4</v>
@@ -3572,84 +3505,81 @@
         <v>4</v>
       </c>
       <c r="U21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y21" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO21" s="1">
-        <v>3</v>
-      </c>
-      <c r="AP21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ21" s="1">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>5</v>
       </c>
       <c r="AS21" s="1">
-        <v>5</v>
-      </c>
-      <c r="AT21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU21" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44292.944344456017</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1">
         <v>2019</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>107</v>
+      <c r="D22" s="1">
+        <v>1</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -3658,22 +3588,22 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1">
-        <v>2</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2</v>
-      </c>
       <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>4</v>
+      </c>
+      <c r="L22" s="1">
         <v>1</v>
-      </c>
-      <c r="K22" s="1">
-        <v>4</v>
-      </c>
-      <c r="L22" s="1">
-        <v>4</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -3685,10 +3615,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R22" s="1">
         <v>5</v>
@@ -3700,99 +3630,96 @@
         <v>5</v>
       </c>
       <c r="U22" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" s="1">
         <v>3</v>
       </c>
       <c r="W22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X22" s="1">
         <v>5</v>
       </c>
       <c r="Y22" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="AG22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV22" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ22" s="1">
-        <v>4</v>
-      </c>
-      <c r="AS22" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV22" s="1">
-        <v>4</v>
       </c>
       <c r="AW22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AX22" s="1" t="s">
-        <v>97</v>
-      </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44293.414928310187</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1">
         <v>2020</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>107</v>
+      <c r="D23" s="1">
+        <v>5</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
       </c>
       <c r="F23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1">
         <v>4</v>
@@ -3801,10 +3728,10 @@
         <v>4</v>
       </c>
       <c r="I23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K23" s="1">
         <v>4</v>
@@ -3825,7 +3752,7 @@
         <v>4</v>
       </c>
       <c r="Q23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R23" s="1">
         <v>3</v>
@@ -3843,90 +3770,87 @@
         <v>3</v>
       </c>
       <c r="W23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z23" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AG23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AH23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AM23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AN23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO23" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ23" s="1">
-        <v>3</v>
+      <c r="AP23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>5</v>
       </c>
       <c r="AS23" s="1">
-        <v>5</v>
-      </c>
-      <c r="AT23" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU23" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44293.415834050931</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1">
         <v>2021</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>107</v>
+      <c r="D24" s="1">
+        <v>5</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -3947,22 +3871,22 @@
         <v>5</v>
       </c>
       <c r="K24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O24" s="1">
         <v>5</v>
       </c>
       <c r="P24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="1">
         <v>4</v>
@@ -3971,16 +3895,16 @@
         <v>4</v>
       </c>
       <c r="S24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T24" s="1">
         <v>3</v>
       </c>
       <c r="U24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W24" s="1">
         <v>5</v>
@@ -3994,124 +3918,121 @@
       <c r="Z24" s="1">
         <v>5</v>
       </c>
-      <c r="AA24" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>5</v>
+      <c r="AA24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI24" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO24" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ24" s="1">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>4</v>
       </c>
       <c r="AS24" s="1">
         <v>4</v>
       </c>
-      <c r="AT24" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV24" s="1">
+      <c r="AT24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU24" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44293.785580069445</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1">
         <v>2019</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>107</v>
+      <c r="D25" s="1">
+        <v>4</v>
       </c>
       <c r="E25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
       </c>
       <c r="G25" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K25" s="1">
         <v>5</v>
       </c>
-      <c r="L25" s="1">
-        <v>5</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>73</v>
+      <c r="L25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3</v>
       </c>
       <c r="N25" s="1">
-        <v>3</v>
-      </c>
-      <c r="O25" s="1">
-        <v>4</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3</v>
       </c>
       <c r="Q25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R25" s="1">
         <v>4</v>
       </c>
       <c r="S25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25" s="1">
         <v>3</v>
@@ -4120,105 +4041,102 @@
         <v>3</v>
       </c>
       <c r="V25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="AG25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AH25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO25" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ25" s="1">
-        <v>3</v>
-      </c>
-      <c r="AS25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AT25" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV25" s="1">
-        <v>5</v>
-      </c>
       <c r="AW25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44293.905347199077</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1">
         <v>2019</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>107</v>
+      <c r="D26" s="1">
+        <v>4</v>
       </c>
       <c r="E26" s="1">
         <v>4</v>
       </c>
       <c r="F26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -4233,13 +4151,13 @@
         <v>3</v>
       </c>
       <c r="K26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" s="1">
         <v>4</v>
       </c>
       <c r="M26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" s="1">
         <v>3</v>
@@ -4254,7 +4172,7 @@
         <v>3</v>
       </c>
       <c r="R26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26" s="1">
         <v>4</v>
@@ -4266,99 +4184,96 @@
         <v>4</v>
       </c>
       <c r="V26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y26" s="1">
         <v>5</v>
       </c>
       <c r="Z26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI26" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ26" s="1">
+        <v>75</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR26" s="1">
         <v>3</v>
       </c>
       <c r="AS26" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT26" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU26" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44294.526387465274</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1">
         <v>2019</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>107</v>
+      <c r="D27" s="1">
+        <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1">
         <v>5</v>
       </c>
       <c r="G27" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" s="1">
         <v>4</v>
@@ -4367,28 +4282,28 @@
         <v>4</v>
       </c>
       <c r="J27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" s="1">
         <v>5</v>
       </c>
       <c r="L27" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27" s="1">
         <v>4</v>
       </c>
       <c r="N27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O27" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P27" s="1">
         <v>4</v>
       </c>
       <c r="Q27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R27" s="1">
         <v>3</v>
@@ -4397,91 +4312,88 @@
         <v>3</v>
       </c>
       <c r="T27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X27" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y27" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="AG27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="AH27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO27" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ27" s="1">
-        <v>4</v>
-      </c>
-      <c r="AS27" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT27" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV27" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW27" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
